--- a/data/pca/factorExposure/factorExposure_2012-11-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-11-26.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>0.0009345948058232588</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.002124664790398447</v>
+      </c>
+      <c r="C2">
+        <v>-0.03091911942737203</v>
+      </c>
+      <c r="D2">
+        <v>0.00454774879217442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0007109948851172638</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.0067575242466056</v>
+      </c>
+      <c r="C4">
+        <v>-0.08302747643328666</v>
+      </c>
+      <c r="D4">
+        <v>0.0757362950069034</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0004691063820897862</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01448496599858341</v>
+      </c>
+      <c r="C6">
+        <v>-0.1144363559921732</v>
+      </c>
+      <c r="D6">
+        <v>0.03374858624461574</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001801381821324268</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.00466756425476714</v>
+      </c>
+      <c r="C7">
+        <v>-0.05782861006783228</v>
+      </c>
+      <c r="D7">
+        <v>0.03176770779945778</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.0007444707862205333</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.005881507583360995</v>
+      </c>
+      <c r="C8">
+        <v>-0.0369975377516773</v>
+      </c>
+      <c r="D8">
+        <v>0.0399686746599725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003691855538882567</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.0048277058454029</v>
+      </c>
+      <c r="C9">
+        <v>-0.0704357205390873</v>
+      </c>
+      <c r="D9">
+        <v>0.07327097764551153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.002342411051916007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005498627958268417</v>
+      </c>
+      <c r="C10">
+        <v>-0.05758052162317238</v>
+      </c>
+      <c r="D10">
+        <v>-0.1968947016040967</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002894599197691897</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005843408104122352</v>
+      </c>
+      <c r="C11">
+        <v>-0.07984578166122241</v>
+      </c>
+      <c r="D11">
+        <v>0.06013332473518083</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-8.454174853489999e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004134227478196547</v>
+      </c>
+      <c r="C12">
+        <v>-0.06408099957265515</v>
+      </c>
+      <c r="D12">
+        <v>0.04686711620562377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.000996484449793781</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.008851529359072885</v>
+      </c>
+      <c r="C13">
+        <v>-0.06950616816284624</v>
+      </c>
+      <c r="D13">
+        <v>0.05726883071463228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.00126645809214211</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001136542436546818</v>
+      </c>
+      <c r="C14">
+        <v>-0.04388981469166317</v>
+      </c>
+      <c r="D14">
+        <v>0.006403281599886202</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0005605122133170675</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006000972332179345</v>
+      </c>
+      <c r="C15">
+        <v>-0.04157382363094436</v>
+      </c>
+      <c r="D15">
+        <v>0.03094397755880908</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0005936119993603667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005099733920527581</v>
+      </c>
+      <c r="C16">
+        <v>-0.06439280334969358</v>
+      </c>
+      <c r="D16">
+        <v>0.05161971087437692</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0002191375668734147</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.008599341991243592</v>
+      </c>
+      <c r="C20">
+        <v>-0.06550638220022574</v>
+      </c>
+      <c r="D20">
+        <v>0.04293896116692064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005423633487606322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.009659136846652698</v>
+      </c>
+      <c r="C21">
+        <v>-0.02122257391091507</v>
+      </c>
+      <c r="D21">
+        <v>0.03899807928207567</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01636923773443422</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006150205158164726</v>
+      </c>
+      <c r="C22">
+        <v>-0.09364849836955649</v>
+      </c>
+      <c r="D22">
+        <v>0.1156640014037577</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.0167004716878355</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.005964545955425825</v>
+      </c>
+      <c r="C23">
+        <v>-0.09447635934794192</v>
+      </c>
+      <c r="D23">
+        <v>0.1156348422642239</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001722328990770126</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005592558968009411</v>
+      </c>
+      <c r="C24">
+        <v>-0.07690038901688401</v>
+      </c>
+      <c r="D24">
+        <v>0.06459211122975834</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.004111960218251051</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003188041178192578</v>
+      </c>
+      <c r="C25">
+        <v>-0.07795871878156965</v>
+      </c>
+      <c r="D25">
+        <v>0.06604229641078202</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.003712002002010084</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003636253244221142</v>
+      </c>
+      <c r="C26">
+        <v>-0.04075476048636558</v>
+      </c>
+      <c r="D26">
+        <v>0.02155168943923279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005082945031935307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.0009545915014102057</v>
+      </c>
+      <c r="C28">
+        <v>-0.1069567476830256</v>
+      </c>
+      <c r="D28">
+        <v>-0.320822067574081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001562438138712336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003067189208786126</v>
+      </c>
+      <c r="C29">
+        <v>-0.04969001153272946</v>
+      </c>
+      <c r="D29">
+        <v>0.008911479454255864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002921904273568617</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.01001610211614939</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416048834459875</v>
+      </c>
+      <c r="D30">
+        <v>0.1036391246515149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.0007774457871081026</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006326458760049716</v>
+      </c>
+      <c r="C31">
+        <v>-0.04433578564815897</v>
+      </c>
+      <c r="D31">
+        <v>0.02889829023467482</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0005101470118791699</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.00403713026438813</v>
+      </c>
+      <c r="C32">
+        <v>-0.03844899638179169</v>
+      </c>
+      <c r="D32">
+        <v>0.02400947470717724</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.001834023434549684</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008717061631034572</v>
+      </c>
+      <c r="C33">
+        <v>-0.08664195351780819</v>
+      </c>
+      <c r="D33">
+        <v>0.06488307663181749</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004713502665877977</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004053019680205804</v>
+      </c>
+      <c r="C34">
+        <v>-0.05738773017304991</v>
+      </c>
+      <c r="D34">
+        <v>0.05388677618039844</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0007355691034855833</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005029567609461356</v>
+      </c>
+      <c r="C35">
+        <v>-0.0398346114800939</v>
+      </c>
+      <c r="D35">
+        <v>0.01943951726639305</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003907170281877251</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.001082920446774276</v>
+      </c>
+      <c r="C36">
+        <v>-0.02538333218098306</v>
+      </c>
+      <c r="D36">
+        <v>0.02165749618020765</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.001608994075930805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009174353708763667</v>
+      </c>
+      <c r="C38">
+        <v>-0.03409242269585292</v>
+      </c>
+      <c r="D38">
+        <v>0.01482881176188098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01306404901347244</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0007472655402809932</v>
+      </c>
+      <c r="C39">
+        <v>-0.1155966902207596</v>
+      </c>
+      <c r="D39">
+        <v>0.07521501788330465</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009167608177867336</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.003023845101311348</v>
+      </c>
+      <c r="C40">
+        <v>-0.09068662709598502</v>
+      </c>
+      <c r="D40">
+        <v>0.01269238467251053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>-0.0009668275790329123</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007360761339988567</v>
+      </c>
+      <c r="C41">
+        <v>-0.03786178434616987</v>
+      </c>
+      <c r="D41">
+        <v>0.0386811011168348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003065579107698287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.004007271118972441</v>
+      </c>
+      <c r="C43">
+        <v>-0.05334786289389254</v>
+      </c>
+      <c r="D43">
+        <v>0.02427719639114346</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.006549727289587675</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003056970280144039</v>
+      </c>
+      <c r="C44">
+        <v>-0.1095304196899163</v>
+      </c>
+      <c r="D44">
+        <v>0.06649703863446464</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001245909584015683</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.001864295959290495</v>
+      </c>
+      <c r="C46">
+        <v>-0.03289135590913797</v>
+      </c>
+      <c r="D46">
+        <v>0.03506689813022701</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>0.0005083813889388049</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002579245611146322</v>
+      </c>
+      <c r="C47">
+        <v>-0.03688923357839292</v>
+      </c>
+      <c r="D47">
+        <v>0.02297116896040907</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.004293975193636089</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006781737022983858</v>
+      </c>
+      <c r="C48">
+        <v>-0.03111244013065213</v>
+      </c>
+      <c r="D48">
+        <v>0.03245884219072374</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.01127817960145104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01602796414661146</v>
+      </c>
+      <c r="C49">
+        <v>-0.182892264965696</v>
+      </c>
+      <c r="D49">
+        <v>0.01527405350330968</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001187775200969745</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003786324318375428</v>
+      </c>
+      <c r="C50">
+        <v>-0.04328977705160581</v>
+      </c>
+      <c r="D50">
+        <v>0.03688690225772082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.001001066963354106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.004765119427284693</v>
+      </c>
+      <c r="C51">
+        <v>-0.02578595747341762</v>
+      </c>
+      <c r="D51">
+        <v>0.02139501283971003</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0007368420333534551</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02114350925784926</v>
+      </c>
+      <c r="C53">
+        <v>-0.1697902687013332</v>
+      </c>
+      <c r="D53">
+        <v>0.02694420417025357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001367484626274686</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008986464063930966</v>
+      </c>
+      <c r="C54">
+        <v>-0.05505088597821162</v>
+      </c>
+      <c r="D54">
+        <v>0.04366800782523616</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004501706290020186</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009416205967402808</v>
+      </c>
+      <c r="C55">
+        <v>-0.1104970709859294</v>
+      </c>
+      <c r="D55">
+        <v>0.0384601559007734</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.001659839582501199</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02030700391866571</v>
+      </c>
+      <c r="C56">
+        <v>-0.1737147987184778</v>
+      </c>
+      <c r="D56">
+        <v>0.01851493084526473</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.007959975451052559</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01937500112848753</v>
+      </c>
+      <c r="C58">
+        <v>-0.1094073638168188</v>
+      </c>
+      <c r="D58">
+        <v>0.06273513274074032</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.007201416698253691</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.0100241687213763</v>
+      </c>
+      <c r="C59">
+        <v>-0.1649167748766867</v>
+      </c>
+      <c r="D59">
+        <v>-0.3304766314271851</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.003770462660193407</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02501809949336251</v>
+      </c>
+      <c r="C60">
+        <v>-0.2231075893703056</v>
+      </c>
+      <c r="D60">
+        <v>0.03061671548271493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01448619459721262</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001627024764728552</v>
+      </c>
+      <c r="C61">
+        <v>-0.09438682217219618</v>
+      </c>
+      <c r="D61">
+        <v>0.05663561743299525</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1632596172874867</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1469029221521737</v>
+      </c>
+      <c r="C62">
+        <v>-0.09311347836723738</v>
+      </c>
+      <c r="D62">
+        <v>0.0382998304262635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>2.158607395624783e-05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006642138045612837</v>
+      </c>
+      <c r="C63">
+        <v>-0.0548967354864322</v>
+      </c>
+      <c r="D63">
+        <v>0.02618015891245679</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.0006715289987011143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01515872881701585</v>
+      </c>
+      <c r="C64">
+        <v>-0.1061434646903211</v>
+      </c>
+      <c r="D64">
+        <v>0.06057314991457501</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002925883566907061</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01796835806049669</v>
+      </c>
+      <c r="C65">
+        <v>-0.124527689198447</v>
+      </c>
+      <c r="D65">
+        <v>0.02444186380847335</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.007578767502353419</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01331257397221769</v>
+      </c>
+      <c r="C66">
+        <v>-0.1599223672815349</v>
+      </c>
+      <c r="D66">
+        <v>0.1122704530084061</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003351574798567671</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.0155690849744419</v>
+      </c>
+      <c r="C67">
+        <v>-0.06519045370934796</v>
+      </c>
+      <c r="D67">
+        <v>0.02639793970277277</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.005356327595867744</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.001074619222691211</v>
+      </c>
+      <c r="C68">
+        <v>-0.08658835349330328</v>
+      </c>
+      <c r="D68">
+        <v>-0.261502140707504</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002093817453542238</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.005993946969188963</v>
+      </c>
+      <c r="C69">
+        <v>-0.05081905238549003</v>
+      </c>
+      <c r="D69">
+        <v>0.03841832849967057</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-1.87347005909009e-05</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001787331922358116</v>
+      </c>
+      <c r="C70">
+        <v>-0.002760979073060059</v>
+      </c>
+      <c r="D70">
+        <v>0.0008755484583559573</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0006482842968589958</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005982384350473601</v>
+      </c>
+      <c r="C71">
+        <v>-0.09367983471940979</v>
+      </c>
+      <c r="D71">
+        <v>-0.3036479472300191</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003453358672958887</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01642922229358756</v>
+      </c>
+      <c r="C72">
+        <v>-0.1530441342752799</v>
+      </c>
+      <c r="D72">
+        <v>0.01502615878272163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01166352395955715</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03156034642405078</v>
+      </c>
+      <c r="C73">
+        <v>-0.2811399501465562</v>
+      </c>
+      <c r="D73">
+        <v>0.0580347724132437</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005523815581637193</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002042465877147938</v>
+      </c>
+      <c r="C74">
+        <v>-0.1042557927480435</v>
+      </c>
+      <c r="D74">
+        <v>0.03386703228634302</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002913321845985994</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01141194667415765</v>
+      </c>
+      <c r="C75">
+        <v>-0.1248342727778482</v>
+      </c>
+      <c r="D75">
+        <v>0.0212619941175062</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.007769959058142569</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.02223879915995362</v>
+      </c>
+      <c r="C76">
+        <v>-0.1489073901373857</v>
+      </c>
+      <c r="D76">
+        <v>0.05761708849692166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.0030429997143659</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02209546415413761</v>
+      </c>
+      <c r="C77">
+        <v>-0.1185315132917254</v>
+      </c>
+      <c r="D77">
+        <v>0.08421507692720186</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001284459888363381</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01514943745407837</v>
+      </c>
+      <c r="C78">
+        <v>-0.09691901910346799</v>
+      </c>
+      <c r="D78">
+        <v>0.07140834471526612</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02377487524677578</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03811890396427828</v>
+      </c>
+      <c r="C79">
+        <v>-0.157419783092655</v>
+      </c>
+      <c r="D79">
+        <v>0.03117961466505338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.005677863176657854</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01005376326811437</v>
+      </c>
+      <c r="C80">
+        <v>-0.03969171032879409</v>
+      </c>
+      <c r="D80">
+        <v>0.0287948645294146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.0007492320407376546</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01621331128450539</v>
+      </c>
+      <c r="C81">
+        <v>-0.1289420511123741</v>
+      </c>
+      <c r="D81">
+        <v>0.04058225708867175</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.003711225814264371</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.0199899253694914</v>
+      </c>
+      <c r="C82">
+        <v>-0.1415046822845331</v>
+      </c>
+      <c r="D82">
+        <v>0.03590157526326507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008234420194637488</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01010610476880699</v>
+      </c>
+      <c r="C83">
+        <v>-0.05534540379448187</v>
+      </c>
+      <c r="D83">
+        <v>0.05370749656912479</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01193263350402705</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01153835595940542</v>
+      </c>
+      <c r="C84">
+        <v>-0.03706799383986452</v>
+      </c>
+      <c r="D84">
+        <v>-0.003072065318922144</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01368511212429309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02909765591368656</v>
+      </c>
+      <c r="C85">
+        <v>-0.1254580917678996</v>
+      </c>
+      <c r="D85">
+        <v>0.0433983606130371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.00218239356416233</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005135075003287821</v>
+      </c>
+      <c r="C86">
+        <v>-0.04987480508168471</v>
+      </c>
+      <c r="D86">
+        <v>0.03049038385271097</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.002776846206507775</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01095487935754932</v>
+      </c>
+      <c r="C87">
+        <v>-0.1288167297004385</v>
+      </c>
+      <c r="D87">
+        <v>0.07255142341118097</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01105257706897841</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.002656228170849381</v>
+      </c>
+      <c r="C88">
+        <v>-0.06522805723073992</v>
+      </c>
+      <c r="D88">
+        <v>0.01904146311723447</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01364059970809708</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001387820526243632</v>
+      </c>
+      <c r="C89">
+        <v>-0.1469638997965075</v>
+      </c>
+      <c r="D89">
+        <v>-0.3290430015524727</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.0006607764073495174</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.006896740129722716</v>
+      </c>
+      <c r="C90">
+        <v>-0.120396477431484</v>
+      </c>
+      <c r="D90">
+        <v>-0.3174233455039293</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>0.0004217991475897171</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01059612820123913</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003758136411674</v>
+      </c>
+      <c r="D91">
+        <v>0.0224837781232203</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008431483863072867</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001154888306954477</v>
+      </c>
+      <c r="C92">
+        <v>-0.1365866588539159</v>
+      </c>
+      <c r="D92">
+        <v>-0.3234997399180767</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0001455858437643517</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.0051959458199718</v>
+      </c>
+      <c r="C93">
+        <v>-0.1058288868424551</v>
+      </c>
+      <c r="D93">
+        <v>-0.3009742557627852</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.002639121865229209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02268733097162184</v>
+      </c>
+      <c r="C94">
+        <v>-0.1462707357045883</v>
+      </c>
+      <c r="D94">
+        <v>0.04984213119187405</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004116578160114386</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.01749067730885624</v>
+      </c>
+      <c r="C95">
+        <v>-0.1249348325980759</v>
+      </c>
+      <c r="D95">
+        <v>0.05778347896762284</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>1.594721735155784e-05</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03670354558648605</v>
+      </c>
+      <c r="C97">
+        <v>-0.2137218654077743</v>
+      </c>
+      <c r="D97">
+        <v>-0.01089328635206158</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.00313815988137981</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03755789320488677</v>
+      </c>
+      <c r="C98">
+        <v>-0.2497643287100403</v>
+      </c>
+      <c r="D98">
+        <v>0.04652947736986643</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9848801308126468</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9816738530265903</v>
+      </c>
+      <c r="C99">
+        <v>0.1188906006644836</v>
+      </c>
+      <c r="D99">
+        <v>-0.02637586892941685</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001484092410942624</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003107467928012101</v>
+      </c>
+      <c r="C101">
+        <v>-0.0498282619759183</v>
+      </c>
+      <c r="D101">
+        <v>0.009288816721042481</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
